--- a/static/excel/call_module.xlsx
+++ b/static/excel/call_module.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/03_work/04_Document/00_Collect/BQ/开发/模板数据/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1120" windowWidth="28160" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="480" windowWidth="28160" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>

--- a/static/excel/call_module.xlsx
+++ b/static/excel/call_module.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/BQ/root/开发/模板数据/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="480" windowWidth="28160" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>联系人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,87 +58,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘龙龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婷姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-30岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-45岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45-60岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>营销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘龙龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>自有</t>
   </si>
   <si>
     <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婷姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史老板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-30岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-45岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45-60岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +139,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -175,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -186,6 +185,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -457,10 +459,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -469,11 +471,11 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -493,7 +495,7 @@
         <v>13434340021</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -502,91 +504,102 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>13799900222</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>18218086351</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>17612161114</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>18677772222</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+      <formula1>"营销,自有"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+      <formula1>"18岁以下,18-30岁,30-45岁,45-60岁,60岁以上"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/excel/call_module.xlsx
+++ b/static/excel/call_module.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/BQ/root/开发/模板数据/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/shuyun/ywh-web/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -54,26 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘龙龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +102,21 @@
   </si>
   <si>
     <t>女</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>重庆市</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>山西省</t>
   </si>
 </sst>
 </file>
@@ -475,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -495,101 +490,101 @@
         <v>13434340021</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>13799900222</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>18218086351</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>17612161114</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>18677772222</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>"营销,自有"</formula1>
     </dataValidation>
@@ -599,6 +594,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
       <formula1>"18岁以下,18-30岁,30-45岁,45-60岁,60岁以上"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>"北京市,天津市,上海市,重庆市,河北省,山西省,辽宁省,吉林省,黑龙江省,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,海南省,四川省,贵州省,云南省,陕西省,甘肃省,青海省,台湾省,内蒙古自治区,广西壮族自治区,西藏自治区,宁夏回族自治区,新疆维吾尔自治区,香港特别行政区,澳门特别行政区"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
